--- a/data/Cost of Living Index for Country 2018 Mid-Year.xlsx
+++ b/data/Cost of Living Index for Country 2018 Mid-Year.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMonster\Downloads\DM Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MMMonster\Desktop\DM Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC1D4271-9ED8-4A2E-97C5-8E4A231A1C1E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54835729-25F2-478C-860A-625DE57D8CB2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12165" xr2:uid="{BA3E604A-6E69-497F-8484-0743DD80CBA8}"/>
   </bookViews>
@@ -457,6 +457,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66FF1772-A088-48A4-9693-939671ED9A6A}" name="Table1" displayName="Table1" ref="A1:H118" totalsRowShown="0">
+  <autoFilter ref="A1:H118" xr:uid="{1A97DC15-7F09-40B9-8420-507499E875E8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3C3ED97B-C1D2-4FE0-9C45-E7C578F591AA}" name="Rank"/>
+    <tableColumn id="2" xr3:uid="{0B7D7D32-DC96-4E25-B34B-F0B6E978AEB6}" name="Country"/>
+    <tableColumn id="3" xr3:uid="{CBE6475E-516E-42F7-8A50-9753C5B0D75D}" name="Cost of Living Index"/>
+    <tableColumn id="4" xr3:uid="{661FFE26-649F-489A-9E46-A711D0A7B873}" name="Rent Index"/>
+    <tableColumn id="5" xr3:uid="{C25953BB-668D-4A6C-BDFF-93E434E0BF72}" name="Cost of Living Plus Rent Index"/>
+    <tableColumn id="6" xr3:uid="{35A1A324-6CDA-4F2A-AEED-646867C71D1C}" name="Groceries Index"/>
+    <tableColumn id="7" xr3:uid="{BBA15B49-50CE-463F-9635-58A7946129CE}" name="Restaurant Price Index"/>
+    <tableColumn id="8" xr3:uid="{6EFBFB81-84D0-4149-808C-AD440138034D}" name="Local Purchasing Power Index"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,9 +775,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6024FA9-291E-472F-88A5-ABA72559BF94}">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="29.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3832,5 +3860,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>